--- a/portfolio/모델링 연습중/0222 모델링문제풀이.xlsx
+++ b/portfolio/모델링 연습중/0222 모델링문제풀이.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29\Desktop\vsc로 작업\DW_memo\모델링 연습중\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29\Desktop\vsc로 작업\DW_memo\Portfolio\모델링 연습중\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -902,15 +902,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
   <dimension ref="C3:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
